--- a/data/pca/factorExposure/factorExposure_2009-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01731109411325389</v>
+        <v>0.01680289185631816</v>
       </c>
       <c r="C2">
-        <v>0.001565788703748165</v>
+        <v>-0.001170832921727869</v>
       </c>
       <c r="D2">
-        <v>-0.008700986173062655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009070975870513131</v>
+      </c>
+      <c r="E2">
+        <v>-0.001917711143082132</v>
+      </c>
+      <c r="F2">
+        <v>0.01209491995145039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0902441161819308</v>
+        <v>0.09176833146923537</v>
       </c>
       <c r="C4">
-        <v>0.01969715248969357</v>
+        <v>-0.01491742040840749</v>
       </c>
       <c r="D4">
-        <v>-0.07671175259839161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0819510650134504</v>
+      </c>
+      <c r="E4">
+        <v>-0.02719126558668516</v>
+      </c>
+      <c r="F4">
+        <v>-0.03140187637433017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.379337148323635e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.30237160640661e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-1.014966724358738e-05</v>
+      </c>
+      <c r="E5">
+        <v>8.031863313337155e-05</v>
+      </c>
+      <c r="F5">
+        <v>2.786739149545527e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1528367186586365</v>
+        <v>0.1614310905108025</v>
       </c>
       <c r="C6">
-        <v>0.02989248105973131</v>
+        <v>-0.0291780042696375</v>
       </c>
       <c r="D6">
-        <v>0.0363504194796715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02600868064305122</v>
+      </c>
+      <c r="E6">
+        <v>-0.00990907819465078</v>
+      </c>
+      <c r="F6">
+        <v>-0.04000729381478603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06032925520899621</v>
+        <v>0.06247524336578888</v>
       </c>
       <c r="C7">
-        <v>0.001933784945401431</v>
+        <v>0.001421150977086252</v>
       </c>
       <c r="D7">
-        <v>-0.04832695018098217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05337680275995682</v>
+      </c>
+      <c r="E7">
+        <v>-0.01467281794186938</v>
+      </c>
+      <c r="F7">
+        <v>-0.04938964262145711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06123155259925602</v>
+        <v>0.05682095501489347</v>
       </c>
       <c r="C8">
-        <v>-0.01039998497205213</v>
+        <v>0.01229907880841922</v>
       </c>
       <c r="D8">
-        <v>-0.02607685506065932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03081389599413066</v>
+      </c>
+      <c r="E8">
+        <v>-0.01773650354355466</v>
+      </c>
+      <c r="F8">
+        <v>0.0266536124257841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06992627735783807</v>
+        <v>0.07124350377552889</v>
       </c>
       <c r="C9">
-        <v>0.01569468147220643</v>
+        <v>-0.01056915216276711</v>
       </c>
       <c r="D9">
-        <v>-0.07919104446528835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08515095847042821</v>
+      </c>
+      <c r="E9">
+        <v>-0.02495079166398961</v>
+      </c>
+      <c r="F9">
+        <v>-0.04824256917808095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08455099414576418</v>
+        <v>0.08666810452597111</v>
       </c>
       <c r="C10">
-        <v>0.01561766379684183</v>
+        <v>-0.02156496208885213</v>
       </c>
       <c r="D10">
-        <v>0.1672640705300751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1595287039714381</v>
+      </c>
+      <c r="E10">
+        <v>0.03423417800134952</v>
+      </c>
+      <c r="F10">
+        <v>0.05818315025194234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09115737122051372</v>
+        <v>0.08773035141105889</v>
       </c>
       <c r="C11">
-        <v>0.01698782783119958</v>
+        <v>-0.01169450687916633</v>
       </c>
       <c r="D11">
-        <v>-0.1100418927441701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.116972730477427</v>
+      </c>
+      <c r="E11">
+        <v>-0.04887139510147807</v>
+      </c>
+      <c r="F11">
+        <v>-0.02470896761928796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09666748131915963</v>
+        <v>0.09066105228168178</v>
       </c>
       <c r="C12">
-        <v>0.01523775973964803</v>
+        <v>-0.009151763078467781</v>
       </c>
       <c r="D12">
-        <v>-0.1172327362020777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316354739962432</v>
+      </c>
+      <c r="E12">
+        <v>-0.04934041226864543</v>
+      </c>
+      <c r="F12">
+        <v>-0.03147850569102933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04475154418197434</v>
+        <v>0.04357359666809303</v>
       </c>
       <c r="C13">
-        <v>0.00651396190404377</v>
+        <v>-0.002613566123857661</v>
       </c>
       <c r="D13">
-        <v>-0.04364505224125649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05400976028816324</v>
+      </c>
+      <c r="E13">
+        <v>0.0001255587490813097</v>
+      </c>
+      <c r="F13">
+        <v>-0.004898304974340028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01995142659224778</v>
+        <v>0.02359217167861646</v>
       </c>
       <c r="C14">
-        <v>0.01502989907281299</v>
+        <v>-0.01379971097062995</v>
       </c>
       <c r="D14">
-        <v>-0.03162509225602149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0322668257603018</v>
+      </c>
+      <c r="E14">
+        <v>-0.01878982252907108</v>
+      </c>
+      <c r="F14">
+        <v>-0.01172180351028429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03465511398758699</v>
+        <v>0.03424917412377435</v>
       </c>
       <c r="C15">
-        <v>0.007528365318178415</v>
+        <v>-0.00554391572763099</v>
       </c>
       <c r="D15">
-        <v>-0.04501013877243774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04650843951712345</v>
+      </c>
+      <c r="E15">
+        <v>-0.008754800883175247</v>
+      </c>
+      <c r="F15">
+        <v>-0.02935992862865707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07492296757880693</v>
+        <v>0.07252253291118409</v>
       </c>
       <c r="C16">
-        <v>0.007442223732939887</v>
+        <v>-0.001780612704863609</v>
       </c>
       <c r="D16">
-        <v>-0.1147987261111689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278639692488997</v>
+      </c>
+      <c r="E16">
+        <v>-0.06328981945988894</v>
+      </c>
+      <c r="F16">
+        <v>-0.02756817660451628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001044768463501713</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003009762847652131</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001955843482024746</v>
+      </c>
+      <c r="E17">
+        <v>-0.001507489313971505</v>
+      </c>
+      <c r="F17">
+        <v>0.002388250203105691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02380209931517324</v>
+        <v>0.04142094780908413</v>
       </c>
       <c r="C18">
-        <v>-0.002203985578666307</v>
+        <v>0.002273381509459535</v>
       </c>
       <c r="D18">
-        <v>-0.02295419178143276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01557268867623778</v>
+      </c>
+      <c r="E18">
+        <v>0.005342133552602301</v>
+      </c>
+      <c r="F18">
+        <v>0.009315845992895741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06375369631524075</v>
+        <v>0.06217072555788128</v>
       </c>
       <c r="C20">
-        <v>0.005216217225520325</v>
+        <v>-0.0011442240735482</v>
       </c>
       <c r="D20">
-        <v>-0.07175008692035653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07873076100047238</v>
+      </c>
+      <c r="E20">
+        <v>-0.05878407255449344</v>
+      </c>
+      <c r="F20">
+        <v>-0.02940102372446891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0409893134629126</v>
+        <v>0.04236454390586356</v>
       </c>
       <c r="C21">
-        <v>0.009844711273824542</v>
+        <v>-0.006936418109369732</v>
       </c>
       <c r="D21">
-        <v>-0.03254798008688207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03587801140711728</v>
+      </c>
+      <c r="E21">
+        <v>0.0005984162618723968</v>
+      </c>
+      <c r="F21">
+        <v>0.02412113488816023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04083003616948089</v>
+        <v>0.04394165405818072</v>
       </c>
       <c r="C22">
-        <v>0.001764439358836082</v>
+        <v>-0.0009837253312951913</v>
       </c>
       <c r="D22">
-        <v>-0.0004572697597414546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006710317555227758</v>
+      </c>
+      <c r="E22">
+        <v>-0.03681930455622846</v>
+      </c>
+      <c r="F22">
+        <v>0.04668975495316125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04079233457777395</v>
+        <v>0.04391713731835779</v>
       </c>
       <c r="C23">
-        <v>0.001753539173802778</v>
+        <v>-0.0009744179323978709</v>
       </c>
       <c r="D23">
-        <v>-0.0004820794946975716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006724281934493283</v>
+      </c>
+      <c r="E23">
+        <v>-0.03700381896580877</v>
+      </c>
+      <c r="F23">
+        <v>0.04666232383247938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08233671784284219</v>
+        <v>0.07835397328938487</v>
       </c>
       <c r="C24">
-        <v>0.008124067103263397</v>
+        <v>-0.002628597638997964</v>
       </c>
       <c r="D24">
-        <v>-0.1142096089738281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1200167393693724</v>
+      </c>
+      <c r="E24">
+        <v>-0.05089396036861173</v>
+      </c>
+      <c r="F24">
+        <v>-0.0302136959172675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08717333076626997</v>
+        <v>0.08355414304978161</v>
       </c>
       <c r="C25">
-        <v>0.01038633394718376</v>
+        <v>-0.005389979845938453</v>
       </c>
       <c r="D25">
-        <v>-0.1020438351797321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092312462622412</v>
+      </c>
+      <c r="E25">
+        <v>-0.0339169751877423</v>
+      </c>
+      <c r="F25">
+        <v>-0.02774411977961189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05810442552714988</v>
+        <v>0.06025134067142681</v>
       </c>
       <c r="C26">
-        <v>0.01800414834057625</v>
+        <v>-0.01478972740903345</v>
       </c>
       <c r="D26">
-        <v>-0.03306704692547643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04371188422985363</v>
+      </c>
+      <c r="E26">
+        <v>-0.03083675978962304</v>
+      </c>
+      <c r="F26">
+        <v>0.00780725692530011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1328087308910633</v>
+        <v>0.1423629131772701</v>
       </c>
       <c r="C28">
-        <v>0.01479944470332456</v>
+        <v>-0.0236477502911058</v>
       </c>
       <c r="D28">
-        <v>0.2661912159529338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2601319462883959</v>
+      </c>
+      <c r="E28">
+        <v>0.06884912413273464</v>
+      </c>
+      <c r="F28">
+        <v>-0.00493189008136839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0263959407316698</v>
+        <v>0.02883728336383707</v>
       </c>
       <c r="C29">
-        <v>0.009808871869189665</v>
+        <v>-0.009053282061898782</v>
       </c>
       <c r="D29">
-        <v>-0.02982707354521855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.030066087993515</v>
+      </c>
+      <c r="E29">
+        <v>-0.01394189659905342</v>
+      </c>
+      <c r="F29">
+        <v>0.01356027931657376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06047379743041233</v>
+        <v>0.05716995809476484</v>
       </c>
       <c r="C30">
-        <v>0.008096427376047002</v>
+        <v>-0.002752232125469009</v>
       </c>
       <c r="D30">
-        <v>-0.07968394182466405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08802360181646596</v>
+      </c>
+      <c r="E30">
+        <v>-0.01582254786444724</v>
+      </c>
+      <c r="F30">
+        <v>-0.07875573829275545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05080957600655572</v>
+        <v>0.05117500464932584</v>
       </c>
       <c r="C31">
-        <v>0.01741793058057572</v>
+        <v>-0.01622333348080813</v>
       </c>
       <c r="D31">
-        <v>-0.02153181347459271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0240911484658144</v>
+      </c>
+      <c r="E31">
+        <v>-0.0282674007415873</v>
+      </c>
+      <c r="F31">
+        <v>0.0005939335503858362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04807872064960632</v>
+        <v>0.05179339405336875</v>
       </c>
       <c r="C32">
-        <v>0.002067406600734064</v>
+        <v>0.001295826565247014</v>
       </c>
       <c r="D32">
-        <v>-0.02966966231052401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0340275667142426</v>
+      </c>
+      <c r="E32">
+        <v>-0.03382729996130935</v>
+      </c>
+      <c r="F32">
+        <v>-0.002552791516164495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09039216365144934</v>
+        <v>0.08941750379037665</v>
       </c>
       <c r="C33">
-        <v>0.01313833062590396</v>
+        <v>-0.007340214844642862</v>
       </c>
       <c r="D33">
-        <v>-0.08936088895410026</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1033465812369388</v>
+      </c>
+      <c r="E33">
+        <v>-0.04768309871182298</v>
+      </c>
+      <c r="F33">
+        <v>-0.04343593942083115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06942582036995056</v>
+        <v>0.06734447364355038</v>
       </c>
       <c r="C34">
-        <v>0.01555322177015833</v>
+        <v>-0.01082156679885665</v>
       </c>
       <c r="D34">
-        <v>-0.09632714150087444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1084181998631117</v>
+      </c>
+      <c r="E34">
+        <v>-0.03678599577996145</v>
+      </c>
+      <c r="F34">
+        <v>-0.03507141028964454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02572542845017315</v>
+        <v>0.02695315322741211</v>
       </c>
       <c r="C35">
-        <v>0.003888393335426473</v>
+        <v>-0.003370106812321262</v>
       </c>
       <c r="D35">
-        <v>-0.008481482042329843</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01220305564859932</v>
+      </c>
+      <c r="E35">
+        <v>-0.01367914394823769</v>
+      </c>
+      <c r="F35">
+        <v>-0.00053686168028745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02497172846532788</v>
+        <v>0.02870798460017728</v>
       </c>
       <c r="C36">
-        <v>0.008154366342647667</v>
+        <v>-0.007133464326719416</v>
       </c>
       <c r="D36">
-        <v>-0.03814705161512802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03905486336366419</v>
+      </c>
+      <c r="E36">
+        <v>-0.0179123170064731</v>
+      </c>
+      <c r="F36">
+        <v>-0.0143163205900314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001803118265685273</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000729060148837962</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002818717799463808</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001655011054012814</v>
+      </c>
+      <c r="F37">
+        <v>0.001506786569814438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1112515698454947</v>
+        <v>0.100048058437404</v>
       </c>
       <c r="C39">
-        <v>0.0228970976495541</v>
+        <v>-0.01638579270039825</v>
       </c>
       <c r="D39">
-        <v>-0.1469467071451001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1506871851942027</v>
+      </c>
+      <c r="E39">
+        <v>-0.0605804806387482</v>
+      </c>
+      <c r="F39">
+        <v>-0.02159481898328303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03912559166878803</v>
+        <v>0.04413838537378639</v>
       </c>
       <c r="C40">
-        <v>0.009457012163862922</v>
+        <v>-0.007938097174099094</v>
       </c>
       <c r="D40">
-        <v>-0.02373884406295683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03268360820224225</v>
+      </c>
+      <c r="E40">
+        <v>-0.003046432574594724</v>
+      </c>
+      <c r="F40">
+        <v>0.01501041240623801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0249720829092053</v>
+        <v>0.02675278574497907</v>
       </c>
       <c r="C41">
-        <v>0.007363004351361796</v>
+        <v>-0.006862187361365235</v>
       </c>
       <c r="D41">
-        <v>-0.008309758001772591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01040490526058933</v>
+      </c>
+      <c r="E41">
+        <v>-0.01133766634698809</v>
+      </c>
+      <c r="F41">
+        <v>0.007390809864860023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04206824390603753</v>
+        <v>0.04012582135879714</v>
       </c>
       <c r="C43">
-        <v>0.008503053547956208</v>
+        <v>-0.007841883301537284</v>
       </c>
       <c r="D43">
-        <v>-0.01645155654864744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01894394109770774</v>
+      </c>
+      <c r="E43">
+        <v>-0.02572487430249314</v>
+      </c>
+      <c r="F43">
+        <v>0.01604468671440187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06836868978600294</v>
+        <v>0.07771749596564514</v>
       </c>
       <c r="C44">
-        <v>0.02426731126076451</v>
+        <v>-0.01989985672035449</v>
       </c>
       <c r="D44">
-        <v>-0.09522151971588608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09631796139391992</v>
+      </c>
+      <c r="E44">
+        <v>-0.06259893875627232</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678591247811974</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02147410027882366</v>
+        <v>0.02443343177925976</v>
       </c>
       <c r="C46">
-        <v>0.004541990658791392</v>
+        <v>-0.003708199149953182</v>
       </c>
       <c r="D46">
-        <v>-0.008963556618099295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01221335960380458</v>
+      </c>
+      <c r="E46">
+        <v>-0.02673134286958256</v>
+      </c>
+      <c r="F46">
+        <v>0.005360464449878298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05359767494758005</v>
+        <v>0.05270040086928867</v>
       </c>
       <c r="C47">
-        <v>0.005453090122384563</v>
+        <v>-0.004639731509965129</v>
       </c>
       <c r="D47">
-        <v>-0.007119775821945624</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01092360923645447</v>
+      </c>
+      <c r="E47">
+        <v>-0.02392016660331369</v>
+      </c>
+      <c r="F47">
+        <v>0.03154777624640863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04881530984254278</v>
+        <v>0.05122264052959561</v>
       </c>
       <c r="C48">
-        <v>0.005098835866590921</v>
+        <v>-0.002527596161335439</v>
       </c>
       <c r="D48">
-        <v>-0.04648322878227261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04982406596998946</v>
+      </c>
+      <c r="E48">
+        <v>0.003650926016571681</v>
+      </c>
+      <c r="F48">
+        <v>-0.01243797773721416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.19903378367947</v>
+        <v>0.2003124455936974</v>
       </c>
       <c r="C49">
-        <v>0.02285999833059549</v>
+        <v>-0.02135842571246242</v>
       </c>
       <c r="D49">
-        <v>0.01515086691663613</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005775088913295348</v>
+      </c>
+      <c r="E49">
+        <v>-0.03253046052223593</v>
+      </c>
+      <c r="F49">
+        <v>-0.04873767236287088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04907348120108747</v>
+        <v>0.05117294935037438</v>
       </c>
       <c r="C50">
-        <v>0.01310160810986713</v>
+        <v>-0.01185556834231192</v>
       </c>
       <c r="D50">
-        <v>-0.02114634662361458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02331717208749979</v>
+      </c>
+      <c r="E50">
+        <v>-0.03010775532592027</v>
+      </c>
+      <c r="F50">
+        <v>-0.009198111404743973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1552124683035077</v>
+        <v>0.1483764527322014</v>
       </c>
       <c r="C52">
-        <v>0.0213019366319547</v>
+        <v>-0.01936394816572963</v>
       </c>
       <c r="D52">
-        <v>-0.04121157278166132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04249974263616575</v>
+      </c>
+      <c r="E52">
+        <v>-0.02233565810455307</v>
+      </c>
+      <c r="F52">
+        <v>-0.04171138714146557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1742566996057194</v>
+        <v>0.1687252538297996</v>
       </c>
       <c r="C53">
-        <v>0.02226408931105688</v>
+        <v>-0.02242361465894506</v>
       </c>
       <c r="D53">
-        <v>-0.006024098209154359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005830947792519385</v>
+      </c>
+      <c r="E53">
+        <v>-0.02985995879264801</v>
+      </c>
+      <c r="F53">
+        <v>-0.0747367986073411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01808581472271459</v>
+        <v>0.01989166422293972</v>
       </c>
       <c r="C54">
-        <v>0.01231770718415021</v>
+        <v>-0.01111158203959633</v>
       </c>
       <c r="D54">
-        <v>-0.03054863464338429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03112006936915384</v>
+      </c>
+      <c r="E54">
+        <v>-0.02050176694377455</v>
+      </c>
+      <c r="F54">
+        <v>0.002038036209329003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1184215131692153</v>
+        <v>0.1167566794564504</v>
       </c>
       <c r="C55">
-        <v>0.01966764358708626</v>
+        <v>-0.01969117033420009</v>
       </c>
       <c r="D55">
-        <v>-0.004692449514704124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008236120127540172</v>
+      </c>
+      <c r="E55">
+        <v>-0.02702122693784031</v>
+      </c>
+      <c r="F55">
+        <v>-0.04649331828380304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.180661785728354</v>
+        <v>0.1758380860571128</v>
       </c>
       <c r="C56">
-        <v>0.02023219298443711</v>
+        <v>-0.02065560222542728</v>
       </c>
       <c r="D56">
-        <v>0.007396433135793908</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003142395374885161</v>
+      </c>
+      <c r="E56">
+        <v>-0.03280509481073879</v>
+      </c>
+      <c r="F56">
+        <v>-0.0551766128925632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0480621603819941</v>
+        <v>0.04603957408052065</v>
       </c>
       <c r="C58">
-        <v>0.005055901164986991</v>
+        <v>-0.0003502597944082628</v>
       </c>
       <c r="D58">
-        <v>-0.06624894778900907</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07582424444360397</v>
+      </c>
+      <c r="E58">
+        <v>-0.03638263868426629</v>
+      </c>
+      <c r="F58">
+        <v>0.03807800128379537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1597499512344431</v>
+        <v>0.166409684237332</v>
       </c>
       <c r="C59">
-        <v>0.01654233696501297</v>
+        <v>-0.02387822484619507</v>
       </c>
       <c r="D59">
-        <v>0.22596906680569</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2174416962834887</v>
+      </c>
+      <c r="E59">
+        <v>0.05084352260611082</v>
+      </c>
+      <c r="F59">
+        <v>0.03918188371677096</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2385085306018455</v>
+        <v>0.230213613092901</v>
       </c>
       <c r="C60">
-        <v>0.004126034993068378</v>
+        <v>-0.001330529447370242</v>
       </c>
       <c r="D60">
-        <v>-0.03459201974688404</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03778216781866128</v>
+      </c>
+      <c r="E60">
+        <v>-0.004431587277425951</v>
+      </c>
+      <c r="F60">
+        <v>-0.006268146959155892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08183522511483297</v>
+        <v>0.07492921941423546</v>
       </c>
       <c r="C61">
-        <v>0.01680017243418755</v>
+        <v>-0.01133790233186935</v>
       </c>
       <c r="D61">
-        <v>-0.10924609896947</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1157395425570782</v>
+      </c>
+      <c r="E61">
+        <v>-0.03816961233431097</v>
+      </c>
+      <c r="F61">
+        <v>-0.007628238315630869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1729312801079467</v>
+        <v>0.1692013183946898</v>
       </c>
       <c r="C62">
-        <v>0.02412012751729974</v>
+        <v>-0.02345713804762244</v>
       </c>
       <c r="D62">
-        <v>0.0004165277972146628</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005907460071424861</v>
+      </c>
+      <c r="E62">
+        <v>-0.03454842240186264</v>
+      </c>
+      <c r="F62">
+        <v>-0.04115291232720176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04159724921503624</v>
+        <v>0.04572538671196686</v>
       </c>
       <c r="C63">
-        <v>0.005370671183423967</v>
+        <v>-0.001984328743651767</v>
       </c>
       <c r="D63">
-        <v>-0.04892555003166178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05974540440395475</v>
+      </c>
+      <c r="E63">
+        <v>-0.02434291101804055</v>
+      </c>
+      <c r="F63">
+        <v>-0.0006058065751489892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1141552015653462</v>
+        <v>0.1110795318938033</v>
       </c>
       <c r="C64">
-        <v>0.01645930620156779</v>
+        <v>-0.01332459660087889</v>
       </c>
       <c r="D64">
-        <v>-0.03297971318096253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04175302220152643</v>
+      </c>
+      <c r="E64">
+        <v>-0.02456511751229789</v>
+      </c>
+      <c r="F64">
+        <v>-0.02664072710669533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1446546593908043</v>
+        <v>0.1516202535904756</v>
       </c>
       <c r="C65">
-        <v>0.03612581328957513</v>
+        <v>-0.03614065381362502</v>
       </c>
       <c r="D65">
-        <v>0.05924412177803538</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04601990068361368</v>
+      </c>
+      <c r="E65">
+        <v>-0.006120597539279331</v>
+      </c>
+      <c r="F65">
+        <v>-0.03746343389170698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1339232873794546</v>
+        <v>0.1201121491514086</v>
       </c>
       <c r="C66">
-        <v>0.02141242624135831</v>
+        <v>-0.01475173721826639</v>
       </c>
       <c r="D66">
-        <v>-0.1291292876459982</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.139632732731747</v>
+      </c>
+      <c r="E66">
+        <v>-0.06499543993454443</v>
+      </c>
+      <c r="F66">
+        <v>-0.02696569239567388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06379626930536497</v>
+        <v>0.05635510005345156</v>
       </c>
       <c r="C67">
-        <v>0.006133607960908088</v>
+        <v>-0.003858733890172836</v>
       </c>
       <c r="D67">
-        <v>-0.05450584617552894</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05805958086007476</v>
+      </c>
+      <c r="E67">
+        <v>-0.02082400970239562</v>
+      </c>
+      <c r="F67">
+        <v>0.03434219511883598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1060453668561</v>
+        <v>0.1168455531078391</v>
       </c>
       <c r="C68">
-        <v>0.02483739802560636</v>
+        <v>-0.03437656685296674</v>
       </c>
       <c r="D68">
-        <v>0.2639942368985392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609358097517456</v>
+      </c>
+      <c r="E68">
+        <v>0.09016824233805318</v>
+      </c>
+      <c r="F68">
+        <v>-0.001440676420044748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03871787514261941</v>
+        <v>0.03782767433420364</v>
       </c>
       <c r="C69">
-        <v>0.002200729096259474</v>
+        <v>-0.001359053582258187</v>
       </c>
       <c r="D69">
-        <v>-0.007124762919605317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008652570347440805</v>
+      </c>
+      <c r="E69">
+        <v>-0.02430839660447876</v>
+      </c>
+      <c r="F69">
+        <v>0.0003322254769151236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06681344293002614</v>
+        <v>0.06728777660887532</v>
       </c>
       <c r="C70">
-        <v>-0.02412929119776561</v>
+        <v>0.02650635034725359</v>
       </c>
       <c r="D70">
-        <v>-0.02144977942516395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02697947462068485</v>
+      </c>
+      <c r="E70">
+        <v>0.02607902804293034</v>
+      </c>
+      <c r="F70">
+        <v>0.1801229511924679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1249695831403755</v>
+        <v>0.1368686779023302</v>
       </c>
       <c r="C71">
-        <v>0.02953240966122157</v>
+        <v>-0.03905371834615252</v>
       </c>
       <c r="D71">
-        <v>0.2805269946243809</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2705694820634459</v>
+      </c>
+      <c r="E71">
+        <v>0.09898984525031028</v>
+      </c>
+      <c r="F71">
+        <v>-0.006961092247616796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1371418501885771</v>
+        <v>0.1441083650470271</v>
       </c>
       <c r="C72">
-        <v>0.02875651799479786</v>
+        <v>-0.02925040747710265</v>
       </c>
       <c r="D72">
-        <v>-0.0002569109326226247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003882545747030112</v>
+      </c>
+      <c r="E72">
+        <v>-0.03955654269723627</v>
+      </c>
+      <c r="F72">
+        <v>-0.0272209834187025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2034961495632199</v>
+        <v>0.203777204992213</v>
       </c>
       <c r="C73">
-        <v>0.01789843468880128</v>
+        <v>-0.01451638827711256</v>
       </c>
       <c r="D73">
-        <v>-0.006596266823376374</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01705696436656892</v>
+      </c>
+      <c r="E73">
+        <v>-0.06672561699304416</v>
+      </c>
+      <c r="F73">
+        <v>-0.04409200544560356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0919570878043173</v>
+        <v>0.09304622025048408</v>
       </c>
       <c r="C74">
-        <v>0.0148157997083666</v>
+        <v>-0.01428211329820237</v>
       </c>
       <c r="D74">
-        <v>-0.01481153014436101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01685434418948794</v>
+      </c>
+      <c r="E74">
+        <v>-0.04329188817996098</v>
+      </c>
+      <c r="F74">
+        <v>-0.05224675655862684</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1336687045745258</v>
+        <v>0.126108156134513</v>
       </c>
       <c r="C75">
-        <v>0.03191245946666733</v>
+        <v>-0.03024047296053144</v>
       </c>
       <c r="D75">
-        <v>-0.02278617531851319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02909657376773968</v>
+      </c>
+      <c r="E75">
+        <v>-0.05739601015865305</v>
+      </c>
+      <c r="F75">
+        <v>-0.02130442797327516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08223166996087726</v>
+        <v>0.09216230493071784</v>
       </c>
       <c r="C77">
-        <v>0.01405885051206412</v>
+        <v>-0.008884694769299373</v>
       </c>
       <c r="D77">
-        <v>-0.1125057431280552</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1157840461934971</v>
+      </c>
+      <c r="E77">
+        <v>-0.04930496733971628</v>
+      </c>
+      <c r="F77">
+        <v>-0.03577007459397619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1014527284334953</v>
+        <v>0.1011815737243307</v>
       </c>
       <c r="C78">
-        <v>0.04410043303514232</v>
+        <v>-0.03961545812374322</v>
       </c>
       <c r="D78">
-        <v>-0.1126580570143861</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1123118333981264</v>
+      </c>
+      <c r="E78">
+        <v>-0.07998420955789239</v>
+      </c>
+      <c r="F78">
+        <v>-0.05235628471896746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1664186702562732</v>
+        <v>0.1633837015462668</v>
       </c>
       <c r="C79">
-        <v>0.02688166494496269</v>
+        <v>-0.02577571939340187</v>
       </c>
       <c r="D79">
-        <v>-0.005406132578627329</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01150349618800574</v>
+      </c>
+      <c r="E79">
+        <v>-0.04398882814276665</v>
+      </c>
+      <c r="F79">
+        <v>-0.01283912907450983</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08203809301288566</v>
+        <v>0.07999894810993821</v>
       </c>
       <c r="C80">
-        <v>0.002470758043200367</v>
+        <v>0.0001160505700186637</v>
       </c>
       <c r="D80">
-        <v>-0.05316554159510763</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05413181962430712</v>
+      </c>
+      <c r="E80">
+        <v>-0.03535752016379663</v>
+      </c>
+      <c r="F80">
+        <v>0.02621608320169593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1208161654032469</v>
+        <v>0.1160248276865799</v>
       </c>
       <c r="C81">
-        <v>0.03392976565283802</v>
+        <v>-0.03362044631141568</v>
       </c>
       <c r="D81">
-        <v>-0.007643531324239666</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01203511189402046</v>
+      </c>
+      <c r="E81">
+        <v>-0.05266357822285354</v>
+      </c>
+      <c r="F81">
+        <v>-0.01733511091017581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1660693949339057</v>
+        <v>0.1650084593907387</v>
       </c>
       <c r="C82">
-        <v>0.02743491935044974</v>
+        <v>-0.02800210964389293</v>
       </c>
       <c r="D82">
-        <v>-0.004636312893839307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002949678555361001</v>
+      </c>
+      <c r="E82">
+        <v>-0.0283665775885173</v>
+      </c>
+      <c r="F82">
+        <v>-0.08249301061265632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06408130275510518</v>
+        <v>0.05768574339332973</v>
       </c>
       <c r="C83">
-        <v>0.00603599638903161</v>
+        <v>-0.003669340307423287</v>
       </c>
       <c r="D83">
-        <v>-0.04473872389764316</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04771239163241859</v>
+      </c>
+      <c r="E83">
+        <v>-0.003049459074865429</v>
+      </c>
+      <c r="F83">
+        <v>0.03569116642314917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06107286290482954</v>
+        <v>0.05542861193246636</v>
       </c>
       <c r="C84">
-        <v>0.01364009503782618</v>
+        <v>-0.01100157696146515</v>
       </c>
       <c r="D84">
-        <v>-0.06895686972222029</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07225490090877408</v>
+      </c>
+      <c r="E84">
+        <v>-0.01384131203240946</v>
+      </c>
+      <c r="F84">
+        <v>-0.01471836197358563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1394143440415754</v>
+        <v>0.1350366944443075</v>
       </c>
       <c r="C85">
-        <v>0.03080754201405535</v>
+        <v>-0.03050466454841837</v>
       </c>
       <c r="D85">
-        <v>-0.006238836484291223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.008895833893630512</v>
+      </c>
+      <c r="E85">
+        <v>-0.03628948489669483</v>
+      </c>
+      <c r="F85">
+        <v>-0.04808399848459744</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1019081474297203</v>
+        <v>0.09306955975428623</v>
       </c>
       <c r="C86">
-        <v>-0.002535743430325477</v>
+        <v>0.005195237578004584</v>
       </c>
       <c r="D86">
-        <v>-0.01316093703906271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04937500477744991</v>
+      </c>
+      <c r="E86">
+        <v>-0.2219185293159807</v>
+      </c>
+      <c r="F86">
+        <v>0.8989664836780618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09680497941917252</v>
+        <v>0.09281465896539737</v>
       </c>
       <c r="C87">
-        <v>0.02835319282766439</v>
+        <v>-0.02019484153673288</v>
       </c>
       <c r="D87">
-        <v>-0.07339631206203628</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09484384272731335</v>
+      </c>
+      <c r="E87">
+        <v>0.05243132891496839</v>
+      </c>
+      <c r="F87">
+        <v>-0.05025982597850141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06258876058862349</v>
+        <v>0.06082471429077964</v>
       </c>
       <c r="C88">
-        <v>0.00559369586890494</v>
+        <v>-0.002844580549971959</v>
       </c>
       <c r="D88">
-        <v>-0.04929547040283412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04958037932323698</v>
+      </c>
+      <c r="E88">
+        <v>-0.02496704432352369</v>
+      </c>
+      <c r="F88">
+        <v>-0.01407128203412078</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1170264442812772</v>
+        <v>0.1267958263277221</v>
       </c>
       <c r="C89">
-        <v>0.0059843904708112</v>
+        <v>-0.01454774316701199</v>
       </c>
       <c r="D89">
-        <v>0.2418760754342587</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2421956446583623</v>
+      </c>
+      <c r="E89">
+        <v>0.09144543768219153</v>
+      </c>
+      <c r="F89">
+        <v>0.007416483999174161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1373388088213071</v>
+        <v>0.1521126056752389</v>
       </c>
       <c r="C90">
-        <v>0.02585058536312319</v>
+        <v>-0.03588646714485141</v>
       </c>
       <c r="D90">
-        <v>0.2672260241799606</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2680009696589218</v>
+      </c>
+      <c r="E90">
+        <v>0.1149901172896759</v>
+      </c>
+      <c r="F90">
+        <v>0.008120806707700868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1213519294085452</v>
+        <v>0.1198421150430413</v>
       </c>
       <c r="C91">
-        <v>0.021487251484047</v>
+        <v>-0.02186469803242088</v>
       </c>
       <c r="D91">
-        <v>0.02045498104857982</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0173531508018777</v>
+      </c>
+      <c r="E91">
+        <v>-0.05347079435878214</v>
+      </c>
+      <c r="F91">
+        <v>0.001784378593228319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1378810425214748</v>
+        <v>0.1451302040733739</v>
       </c>
       <c r="C92">
-        <v>0.01671405788585418</v>
+        <v>-0.02680250766590947</v>
       </c>
       <c r="D92">
-        <v>0.298766881072341</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2930663369794353</v>
+      </c>
+      <c r="E92">
+        <v>0.1033072248142238</v>
+      </c>
+      <c r="F92">
+        <v>0.01746375086844426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1404814081884152</v>
+        <v>0.1534759505733936</v>
       </c>
       <c r="C93">
-        <v>0.02204720429112783</v>
+        <v>-0.03105337070687292</v>
       </c>
       <c r="D93">
-        <v>0.2666755783340178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2643242301393057</v>
+      </c>
+      <c r="E93">
+        <v>0.07683720024327241</v>
+      </c>
+      <c r="F93">
+        <v>-0.003320040889052828</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.133749790700198</v>
+        <v>0.1260157604133304</v>
       </c>
       <c r="C94">
-        <v>0.0283399017446034</v>
+        <v>-0.02630941920760147</v>
       </c>
       <c r="D94">
-        <v>-0.03765376479099254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04070939506882987</v>
+      </c>
+      <c r="E94">
+        <v>-0.05812304447501747</v>
+      </c>
+      <c r="F94">
+        <v>-0.03149406302881316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1276625312533748</v>
+        <v>0.1298293455658953</v>
       </c>
       <c r="C95">
-        <v>0.0106007498780679</v>
+        <v>-0.005159685687438727</v>
       </c>
       <c r="D95">
-        <v>-0.08620191205972851</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09729399143861543</v>
+      </c>
+      <c r="E95">
+        <v>-0.05815195321435188</v>
+      </c>
+      <c r="F95">
+        <v>-0.001832086939158711</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1279761680658663</v>
+        <v>0.1220532395247683</v>
       </c>
       <c r="C96">
-        <v>-0.9860952771404656</v>
+        <v>0.9857395183501133</v>
       </c>
       <c r="D96">
-        <v>0.01910175566930134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05159712372798471</v>
+      </c>
+      <c r="E96">
+        <v>-0.05094573699311008</v>
+      </c>
+      <c r="F96">
+        <v>-0.04217989506938594</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1938682464981313</v>
+        <v>0.1973707378890702</v>
       </c>
       <c r="C97">
-        <v>-0.003112166002436471</v>
+        <v>0.003247488191612342</v>
       </c>
       <c r="D97">
-        <v>0.02217103607866771</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02322670494184314</v>
+      </c>
+      <c r="E97">
+        <v>-0.02245892471416506</v>
+      </c>
+      <c r="F97">
+        <v>0.1208638404031033</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.200602916810046</v>
+        <v>0.2064549374246377</v>
       </c>
       <c r="C98">
-        <v>0.01297815133958763</v>
+        <v>-0.009179256487278893</v>
       </c>
       <c r="D98">
-        <v>-0.01290574790664408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01477648419175685</v>
+      </c>
+      <c r="E98">
+        <v>0.07373014219960541</v>
+      </c>
+      <c r="F98">
+        <v>0.09114953433677035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05572869845719497</v>
+        <v>0.05510125500022599</v>
       </c>
       <c r="C99">
-        <v>-0.001648724447384021</v>
+        <v>0.003744633066362898</v>
       </c>
       <c r="D99">
-        <v>-0.03163728616369747</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03898683879780849</v>
+      </c>
+      <c r="E99">
+        <v>-0.02261960689178104</v>
+      </c>
+      <c r="F99">
+        <v>-0.002926323302639789</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1482450622111469</v>
+        <v>0.1334196695774069</v>
       </c>
       <c r="C100">
-        <v>-0.03686286713044668</v>
+        <v>0.04938764053036728</v>
       </c>
       <c r="D100">
-        <v>-0.3927799615157174</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.358687418608752</v>
+      </c>
+      <c r="E100">
+        <v>0.8834850309749896</v>
+      </c>
+      <c r="F100">
+        <v>0.1487152339217825</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02641247282316839</v>
+        <v>0.02889471272233069</v>
       </c>
       <c r="C101">
-        <v>0.009830858203071925</v>
+        <v>-0.00908476830992799</v>
       </c>
       <c r="D101">
-        <v>-0.0294667442589479</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02969867488238777</v>
+      </c>
+      <c r="E101">
+        <v>-0.01340999701131984</v>
+      </c>
+      <c r="F101">
+        <v>0.01491522207624963</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
